--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\RBFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D7C2D3-DE50-4D0D-91D2-498B358707AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399573C-F412-4991-890D-E4E3714B1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3213379F-00EC-453C-9826-2353D280A39B}"/>
+    <workbookView xWindow="3555" yWindow="2760" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{3213379F-00EC-453C-9826-2353D280A39B}"/>
   </bookViews>
   <sheets>
     <sheet name="РБД 1гр 1пг" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="РБД 1гр 2пг" sheetId="2" r:id="rId2"/>
+    <sheet name="РБД 2гр 1пг" sheetId="3" r:id="rId3"/>
+    <sheet name="РБД 2гр 2пг" sheetId="4" r:id="rId4"/>
+    <sheet name="РИСКУ 1гр 1пг" sheetId="5" r:id="rId5"/>
+    <sheet name="РИСКУ 1гр 2пг" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="24">
   <si>
     <t>Понедельник</t>
   </si>
@@ -71,32 +71,44 @@
     <t>7 пара</t>
   </si>
   <si>
-    <t>матан, 8:30</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>dfsd</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>dd</t>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Труд</t>
+  </si>
+  <si>
+    <t>Физкультура</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +119,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -133,8 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -451,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2AFF4C-5136-429F-AAB7-6F7FEFE27B82}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,80 +487,186 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -544,60 +677,985 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96878F5-B553-41DE-B17D-842B8B91BB34}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBB7E6-2CB2-4E1A-8C67-7ED7DD515B1C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280DC58-DE7D-4B5A-A3FD-D0CB9D2AD8ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C1F32-CC0C-460B-A5C3-BFCF8B3876E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5ECDF3-2831-4B43-95FB-FF1D47A8AE1D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\RBFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399573C-F412-4991-890D-E4E3714B1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8431588-26D7-4A5B-BCB0-65918E782879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2760" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{3213379F-00EC-453C-9826-2353D280A39B}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{3213379F-00EC-453C-9826-2353D280A39B}"/>
   </bookViews>
   <sheets>
     <sheet name="РБД 1гр 1пг" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="31">
   <si>
     <t>Понедельник</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>Физкультура</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Геометрия практика Ставицкая Е.П. 	8:30</t>
+  </si>
+  <si>
+    <t>Алгебра лекция Белова О.О.  10:10</t>
+  </si>
+  <si>
+    <t>Алгебра практика Полякова К.В.  11:50</t>
+  </si>
+  <si>
+    <t>Математический анализ, Худенко В.Н. 11:50</t>
+  </si>
+  <si>
+    <t>н/н Системы компьютерной алгебры Лекция Квитко Г.В. 8:30</t>
+  </si>
+  <si>
+    <t>Основы программирования лекция, Тарачков М.В. 13:50</t>
   </si>
 </sst>
 </file>
@@ -478,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2AFF4C-5136-429F-AAB7-6F7FEFE27B82}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,15 +529,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -531,15 +552,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -554,15 +575,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -577,12 +598,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -605,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -628,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -651,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1467,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5ECDF3-2831-4B43-95FB-FF1D47A8AE1D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
